--- a/trunk/03. Engineering/036. Testing/Testcase/pLED_DualColors_TestCase_v1.0.xlsx
+++ b/trunk/03. Engineering/036. Testing/Testcase/pLED_DualColors_TestCase_v1.0.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Before Solder" sheetId="1" r:id="rId1"/>
     <sheet name="After Solder" sheetId="4" r:id="rId2"/>
     <sheet name="After Programing" sheetId="5" r:id="rId3"/>
+    <sheet name="Functional Testing" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t xml:space="preserve">TestCase ID </t>
   </si>
@@ -190,6 +191,91 @@
   </si>
   <si>
     <t>pLED_Dual_0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User press button "A" on RF control 
+</t>
+  </si>
+  <si>
+    <t>Display Analog Clock</t>
+  </si>
+  <si>
+    <t>Display Real Time</t>
+  </si>
+  <si>
+    <t>Matching Image Design</t>
+  </si>
+  <si>
+    <t>Clock display smoothly</t>
+  </si>
+  <si>
+    <t>pLED_Dual_025</t>
+  </si>
+  <si>
+    <t>pLED_Dual_026</t>
+  </si>
+  <si>
+    <t>pLED_Dual_027</t>
+  </si>
+  <si>
+    <t>pLED_Dual_028</t>
+  </si>
+  <si>
+    <t>pLED_Dual_029</t>
+  </si>
+  <si>
+    <t>pLED_Dual_030</t>
+  </si>
+  <si>
+    <t>pLED_Dual_031</t>
+  </si>
+  <si>
+    <t>pLED_Dual_032</t>
+  </si>
+  <si>
+    <t>pLED_Dual_033</t>
+  </si>
+  <si>
+    <t>pLED_Dual_034</t>
+  </si>
+  <si>
+    <t>pLED_Dual_035</t>
+  </si>
+  <si>
+    <t>pLED_Dual_036</t>
+  </si>
+  <si>
+    <t>pLED_Dual_037</t>
+  </si>
+  <si>
+    <t>pLED_Dual_038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User press button "B" on RF control 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User press button "C" on RF control 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User press button "D" on RF control 
+</t>
+  </si>
+  <si>
+    <t>Display Digital Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Image </t>
+  </si>
+  <si>
+    <t>Display Text</t>
+  </si>
+  <si>
+    <t>Text display smoothly</t>
+  </si>
+  <si>
+    <t>Image display smoothly</t>
   </si>
 </sst>
 </file>
@@ -226,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,11 +348,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +405,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,4 +1304,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>